--- a/biology/Zoologie/Ero_natashae/Ero_natashae.xlsx
+++ b/biology/Zoologie/Ero_natashae/Ero_natashae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ero natashae est une espèce d'araignées aranéomorphes de la famille des Mimetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ero natashae est une espèce d'araignées aranéomorphes de la famille des Mimetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Sainte-Hélène[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Sainte-Hélène.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 2,92 mm et la femelle paratype 3,05 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 2,92 mm et la femelle paratype 3,05 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Sherwood, Henrard, Peters, Price, Hall, White, Grignet et Wilkins en 2024.
 </t>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Natasha Stevens[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Natasha Stevens.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sherwood, Henrard, Peters, Price, Hall, White, Grignet &amp; Wilkins, 2024 : « Two new sympatric species of the pirate spider genus Ero C.L. Koch, 1836 from the cloud forest of Saint Helena Island, South Atlantic Ocean (Araneae: Mimetidae). » European Journal of Taxonomy, vol. 921, p. 76-97 (texte intégral).</t>
         </is>
